--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-08_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-08_beg.xlsx
@@ -1056,7 +1056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">If you ask me why we are doing this, I guess all I can tell you is, “It’s what we are supposed to do.”
+    <t xml:space="preserve">If you ask me why we are doing this, I guess all I can tell you is, 'It’s what we are supposed to do.'
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m not going to give you the “the weak cannot go to battle” excuse you’ve been giving me. All I’m saying is not everyone thinks the same way we do.
+    <t xml:space="preserve">[name="Talulah"]  I’m not going to give you the 'the weak cannot go to battle' excuse you’ve been giving me. All I’m saying is not everyone thinks the same way we do.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-08_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-08_beg.xlsx
@@ -1048,7 +1048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">To outsiders, it probably looks like we are hunting down the Ursus squads. That couldn’t be further from the truth, and it’s a nigh impossible task.
+    <t xml:space="preserve">To outsiders, it probably looks like we are hunting down the Ursus squads. That couldn't be further from the truth, and it's a nigh impossible task.
 </t>
   </si>
   <si>
@@ -1056,11 +1056,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">If you ask me why we are doing this, I guess all I can tell you is, 'It’s what we are supposed to do.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That being said, I can’t help but feel that by taking in all these Infected, thus giving the other teams some breathing room, we may be playing into Mr. Patriot’s hand.
+    <t xml:space="preserve">If you ask me why we are doing this, I guess all I can tell you is, 'It's what we are supposed to do.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That being said, I can't help but feel that by taking in all these Infected, thus giving the other teams some breathing room, we may be playing into Mr. Patriot's hand.
 </t>
   </si>
   <si>
@@ -1068,15 +1068,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">To cross that line is to fight the Ursus garrison head-on—a tall order, it goes without saying. It’s either that or keeping ourselves under the radar.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In other words, we’ll have to leave the tundra, and that means infiltrating the real Ursus territory—their nomadic cities, where all aspects of life are ruled with their iron fist.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At that point, the guerrillas put their weapons away until it’s time for us to take up arms again.
+    <t xml:space="preserve">To cross that line is to fight the Ursus garrison head-on—a tall order, it goes without saying. It's either that or keeping ourselves under the radar.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In other words, we'll have to leave the tundra, and that means infiltrating the real Ursus territory—their nomadic cities, where all aspects of life are ruled with their iron fist.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At that point, the guerrillas put their weapons away until it's time for us to take up arms again.
 </t>
   </si>
   <si>
@@ -1084,15 +1084,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s not easy to take this step.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But this is the Northwestern Tundra... There’s nothing but snow here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We can’t feed all these mouths with just snow.
+    <t xml:space="preserve">It's not easy to take this step.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But this is the Northwestern Tundra... There's nothing but snow here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can't feed all these mouths with just snow.
 </t>
   </si>
   <si>
@@ -1108,7 +1108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Petrova"]  It’s good to see all of you in one piece.
+    <t xml:space="preserve">[name="Petrova"]  It's good to see all of you in one piece.
 </t>
   </si>
   <si>
@@ -1116,27 +1116,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Thank you, Yeti Squad. It’s a pleasure to lead the fight with all of you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Petrova"]  The pleasure is ours, Talulah. We all think it’s very reassuring to fight alongside you. We make a good match. Now I can see why FrostNova trusted you to lead our squad. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Petrova"]  What’s more, the way you use your Arts is getting more ingenious by the day. Blasting flames through the cold air, and detonating that? I don’t think I could’ve come up with that one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Well... those weren’t exactly flames. It’s hard to explain, so I’ll spare you the details.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Petrova"]  I’m sure FrostNova can rest easy knowing she doesn’t have to look out for us all the time anymore. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Petrova"]  So, do you think we’ll come across any more of those Ursus scum here?
+    <t xml:space="preserve">[name="Talulah"]  Thank you, Yeti Squad. It's a pleasure to lead the fight with all of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  The pleasure is ours, Talulah. We all think it's very reassuring to fight alongside you. We make a good match. Now I can see why FrostNova trusted you to lead our squad. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  What's more, the way you use your Arts is getting more ingenious by the day. Blasting flames through the cold air, and detonating that? I don't think I could've come up with that one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Well... those weren't exactly flames. It's hard to explain, so I'll spare you the details.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  I'm sure FrostNova can rest easy knowing she doesn't have to look out for us all the time anymore. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  So, do you think we'll come across any more of those Ursus scum here?
 </t>
   </si>
   <si>
@@ -1148,23 +1148,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  They didn’t stand a chance against us, at the very least.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Petrova"]  They aren’t as weak as you’re making them out to be.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Just relatively speaking. Compared to the regular Ursus Army, at least. It’s not like Patriot has let you fight any battles that difficult. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Petrova"]  No, he hasn’t. It’s true. He didn’t think we could handle it. But I think we are more than up to the task now, with how well we’re getting on.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m not so sure about that. The real Ursus Army is on a whole other level. This detachment lacks discipline and training... I’m guessing they might not even be technically organized.
+    <t xml:space="preserve">[name="Talulah"]  They didn't stand a chance against us, at the very least.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  They aren't as weak as you're making them out to be.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Just relatively speaking. Compared to the regular Ursus Army, at least. It's not like Patriot has let you fight any battles that difficult. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  No, he hasn't. It's true. He didn't think we could handle it. But I think we are more than up to the task now, with how well we're getting on.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I'm not so sure about that. The real Ursus Army is on a whole other level. This detachment lacks discipline and training... I'm guessing they might not even be technically organized.
 </t>
   </si>
   <si>
@@ -1172,7 +1172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Petrova"]  ...So you’re saying we’ve got nothing to celebrate?
+    <t xml:space="preserve">[name="Petrova"]  ...So you're saying we've got nothing to celebrate?
 </t>
   </si>
   <si>
@@ -1180,7 +1180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  We really needed these supplies. Without them, we won’t make it through the winter. 
+    <t xml:space="preserve">[name="Talulah"]  We really needed these supplies. Without them, we won't make it through the winter. 
 </t>
   </si>
   <si>
@@ -1188,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Petrova"]  It’s big enough for us.
+    <t xml:space="preserve">[name="Petrova"]  It's big enough for us.
 </t>
   </si>
   <si>
@@ -1200,15 +1200,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  What’s the matter?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  You’re... one of the Infected from the Earcurl village... if my memory serves me correctly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"]  We’ve got a pretty big team ourselves! At the very least, we're no smaller than you guerrillas. 
+    <t xml:space="preserve">[name="Talulah"]  What's the matter?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You're... one of the Infected from the Earcurl village... if my memory serves me correctly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  We've got a pretty big team ourselves! At the very least, we're no smaller than you guerrillas. 
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected"]  Let’s go our own ways here, Talulah.
+    <t xml:space="preserve">[name="Infected"]  Let's go our own ways here, Talulah.
 </t>
   </si>
   <si>
@@ -1232,7 +1232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected"]  We’ve fought plenty of battles with you people, and we’ve taken the shirt off our backs for you way more than I can count. 
+    <t xml:space="preserve">[name="Infected"]  We've fought plenty of battles with you people, and we've taken the shirt off our backs for you way more than I can count. 
 </t>
   </si>
   <si>
@@ -1248,31 +1248,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  So you are saying you don’t want to fight anymore?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"]  We’ll die.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"]  We’re... We’re all a little...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"]  The enemy... They’re getting stronger and stronger.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  These people aren’t even on the same level as any of the contingents that Patriot’s guerrilla squads have faced.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"]  But we can’t do it!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"]  Talulah, you aren’t going to deny us even this, are you?
+    <t xml:space="preserve">[name="Talulah"]  So you are saying you don't want to fight anymore?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  We'll die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  We're... We're all a little...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  The enemy... They're getting stronger and stronger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  These people aren't even on the same level as any of the contingents that Patriot's guerrilla squads have faced.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  But we can't do it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Talulah, you aren't going to deny us even this, are you?
 </t>
   </si>
   <si>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected"]  ...You coldhearted monsters wouldn’t understand! Death means nothing to you, not like the rest of us...!
+    <t xml:space="preserve">[name="Infected"]  ...You coldhearted monsters wouldn't understand! Death means nothing to you, not like the rest of us...!
 </t>
   </si>
   <si>
@@ -1300,15 +1300,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  We’ll get the supplies out right away. The city is yours to keep.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"]  That’s good to hear...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  But I won’t stand for any insult to our fighters. Apologize to the Yetis right now. 
+    <t xml:space="preserve">[name="Talulah"]  We'll get the supplies out right away. The city is yours to keep.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  That's good to hear...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But I won't stand for any insult to our fighters. Apologize to the Yetis right now. 
 </t>
   </si>
   <si>
@@ -1332,11 +1332,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Petrova"]  (You don’t mean...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  (They know Patriot’s guerrilla squad isn’t around.) 
+    <t xml:space="preserve">[name="Petrova"]  (You don't mean...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  (They know Patriot's guerrilla squad isn't around.) 
 </t>
   </si>
   <si>
@@ -1360,11 +1360,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  The moment they asked to be let go, I wasn’t going to be able to keep them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  Those who lack conviction and willpower shouldn’t wage war. Not now, not ever.
+    <t xml:space="preserve">[name="Talulah"]  The moment they asked to be let go, I wasn't going to be able to keep them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Those who lack conviction and willpower shouldn't wage war. Not now, not ever.
 </t>
   </si>
   <si>
@@ -1396,15 +1396,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  I really can’t know if you have matured or gone soft in that time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  All because I don’t agree with you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  Summon the rest of the Infected and tell them they’ve betrayed the manifesto. Have them executed immediately.
+    <t xml:space="preserve">[name="Patriot"]  I really can't know if you have matured or gone soft in that time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  All because I don't agree with you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Summon the rest of the Infected and tell them they've betrayed the manifesto. Have them executed immediately.
 </t>
   </si>
   <si>
@@ -1412,7 +1412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I can’t do that.
+    <t xml:space="preserve">[name="Talulah"]  I can't do that.
 </t>
   </si>
   <si>
@@ -1424,11 +1424,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  You loathe killing, and you don’t care for power. That’s not a bad thing. But then you need someone to do the dirty work for you. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I’ll let you know I’m not afraid of doing this, and I don’t dare to claim I have the moral high ground over anyone either.
+    <t xml:space="preserve">[name="Patriot"]  You loathe killing, and you don't care for power. That's not a bad thing. But then you need someone to do the dirty work for you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I'll let you know I'm not afraid of doing this, and I don't dare to claim I have the moral high ground over anyone either.
 </t>
   </si>
   <si>
@@ -1440,15 +1440,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  What is that expression? You can’t possibly think I am the honest and noble man everyone makes me out to be?  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  Someone like that would’ve been dead long before the fighting even began.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  What’s honorable besides reigning victorious and safeguarding the fruits of victory? Triumphing over the enemies you loathe in battle is by its very nature an honor, but that doesn’t mean I take pride in my sacrifices. 
+    <t xml:space="preserve">[name="Patriot"]  What is that expression? You can't possibly think I am the honest and noble man everyone makes me out to be?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Someone like that would've been dead long before the fighting even began.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  What's honorable besides reigning victorious and safeguarding the fruits of victory? Triumphing over the enemies you loathe in battle is by its very nature an honor, but that doesn't mean I take pride in my sacrifices. 
 </t>
   </si>
   <si>
@@ -1456,19 +1456,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  This city is already on its last legs. It’s likely been in service for much longer than it was intended. It’s not going to last another three years. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Both you and I know that they are doomed to be stranded in the tundra. They’ll still have to find a way out in the end. But, with the city, they bought themselves a tiny bit of hope, even if it’s just for those three years. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m not going to crush that hope of theirs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  You’re fine seeing your team get torn into two?
+    <t xml:space="preserve">[name="Talulah"]  This city is already on its last legs. It's likely been in service for much longer than it was intended. It's not going to last another three years. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Both you and I know that they are doomed to be stranded in the tundra. They'll still have to find a way out in the end. But, with the city, they bought themselves a tiny bit of hope, even if it's just for those three years. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I'm not going to crush that hope of theirs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You're fine seeing your team get torn into two?
 </t>
   </si>
   <si>
@@ -1476,19 +1476,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m not going to give you the 'the weak cannot go to battle' excuse you’ve been giving me. All I’m saying is not everyone thinks the same way we do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  We’ll have many people join our ranks. But not all of them are working towards the same goal as we are. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  We’re just borrowing their strength. We aren’t exploiting it. If we forced them to do our bidding, we would only be making them work against their own goals. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  And that’s how you get them to actually start doubting each other and feel alienated.
+    <t xml:space="preserve">[name="Talulah"]  I'm not going to give you the 'the weak cannot go to battle' excuse you've been giving me. All I'm saying is not everyone thinks the same way we do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We'll have many people join our ranks. But not all of them are working towards the same goal as we are. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We're just borrowing their strength. We aren't exploiting it. If we forced them to do our bidding, we would only be making them work against their own goals. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And that's how you get them to actually start doubting each other and feel alienated.
 </t>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  If that’s what you want to call it. I’m not sure I’d describe it like that, though. 
+    <t xml:space="preserve">[name="Talulah"]  If that's what you want to call it. I'm not sure I'd describe it like that, though. 
 </t>
   </si>
   <si>
@@ -1508,11 +1508,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  There’s a unit stationed nearby guarding the trade route, and they’re much better trained. You know things are bound to go wrong. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I don’t want to admit it, but you’re right. They just might do that, so we’ll prepare for that.
+    <t xml:space="preserve">[name="Patriot"]  There's a unit stationed nearby guarding the trade route, and they're much better trained. You know things are bound to go wrong. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I don't want to admit it, but you're right. They just might do that, so we'll prepare for that.
 </t>
   </si>
   <si>
@@ -1520,11 +1520,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You’re right. The nomadic city sent a message out. They tipped off the Ursus troops in the area our location.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  ...They want to draw the Ursus Army’s attention to us.
+    <t xml:space="preserve">[name="Talulah"]  You're right. The nomadic city sent a message out. They tipped off the Ursus troops in the area our location.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...They want to draw the Ursus Army's attention to us.
 </t>
   </si>
   <si>
